--- a/evaluation/batch/tuning.xlsx
+++ b/evaluation/batch/tuning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falco\Desktop\NeuralNetwork-library\evaluation\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E078B-7DF2-432A-8903-D3FEA3819138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F08B00-28D2-4535-A9AF-6A14C77A7188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <author>giovanni falcone</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9FCFFB48-A843-4314-AD92-714C7E5B6184}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{9FCFFB48-A843-4314-AD92-714C7E5B6184}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -342,6 +342,183 @@
   </si>
   <si>
     <t>STD_E</t>
+  </si>
+  <si>
+    <t>acc_test</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.8383</t>
+  </si>
+  <si>
+    <t>0.8829</t>
+  </si>
+  <si>
+    <t>0.9477</t>
+  </si>
+  <si>
+    <t>0.9568</t>
+  </si>
+  <si>
+    <t>0.9518</t>
+  </si>
+  <si>
+    <t>0.9526</t>
+  </si>
+  <si>
+    <t>0.9562</t>
+  </si>
+  <si>
+    <t>0.9542</t>
+  </si>
+  <si>
+    <t>0.9483</t>
+  </si>
+  <si>
+    <t>0.9564</t>
+  </si>
+  <si>
+    <t>0.3131</t>
+  </si>
+  <si>
+    <t>0.4146</t>
+  </si>
+  <si>
+    <t>0.3249</t>
+  </si>
+  <si>
+    <t>0.9482</t>
+  </si>
+  <si>
+    <t>0.9251</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>0.9467</t>
+  </si>
+  <si>
+    <t>0.9044</t>
+  </si>
+  <si>
+    <t>0.9608</t>
+  </si>
+  <si>
+    <t>0.9627</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>0.3836</t>
+  </si>
+  <si>
+    <t>0.5044</t>
+  </si>
+  <si>
+    <t>0.1135</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>0.9124</t>
+  </si>
+  <si>
+    <t>0.8915</t>
+  </si>
+  <si>
+    <t>0.8929</t>
+  </si>
+  <si>
+    <t>0.9343</t>
+  </si>
+  <si>
+    <t>0.8533</t>
+  </si>
+  <si>
+    <t>0.9622</t>
+  </si>
+  <si>
+    <t>0.9567</t>
+  </si>
+  <si>
+    <t>0.9491</t>
+  </si>
+  <si>
+    <t>0.4124</t>
+  </si>
+  <si>
+    <t>0.7098</t>
+  </si>
+  <si>
+    <t>0.0974</t>
+  </si>
+  <si>
+    <t>0.5051</t>
+  </si>
+  <si>
+    <t>0.8214</t>
+  </si>
+  <si>
+    <t>0.9438</t>
+  </si>
+  <si>
+    <t>0.8113</t>
+  </si>
+  <si>
+    <t>0.5694</t>
+  </si>
+  <si>
+    <t>0.9558</t>
+  </si>
+  <si>
+    <t>0.9481</t>
+  </si>
+  <si>
+    <t>0.9015</t>
+  </si>
+  <si>
+    <t>0.7096</t>
+  </si>
+  <si>
+    <t>0.5653</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.9512</t>
+  </si>
+  <si>
+    <t>0.8568</t>
+  </si>
+  <si>
+    <t>0.6773</t>
+  </si>
+  <si>
+    <t>0.9331</t>
+  </si>
+  <si>
+    <t>0.8863</t>
+  </si>
+  <si>
+    <t>0.8777</t>
+  </si>
+  <si>
+    <t>0.9554</t>
+  </si>
+  <si>
+    <t>0.9264</t>
+  </si>
+  <si>
+    <t>0.8531</t>
   </si>
 </sst>
 </file>
@@ -459,7 +636,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -506,6 +683,11 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Colore 1" xfId="1" builtinId="29"/>
@@ -3842,10 +4024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15455D5-BB9B-4906-A4D2-42A9D992C9C0}">
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,23 +4036,25 @@
     <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="5" customWidth="1"/>
+    <col min="8" max="9" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="4"/>
+    <col min="15" max="15" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3890,49 +4074,52 @@
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -3951,26 +4138,29 @@
       <c r="F2" s="11">
         <v>0.76208333333333333</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="11">
         <v>33048.646298534477</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>8363.2833454978045</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>27</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <v>11.5</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>0.725379040913395</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>0.72603424704459374</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3989,26 +4179,29 @@
       <c r="F3" s="13">
         <v>0.83358333333333334</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="13">
         <v>25465.195696106392</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <v>6636.2393538392216</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>59</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>23.27</v>
       </c>
-      <c r="K3" s="13">
+      <c r="L3" s="13">
         <v>0.82481059028354431</v>
       </c>
-      <c r="L3" s="13">
+      <c r="M3" s="13">
         <v>0.8223349608433399</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -4027,26 +4220,29 @@
       <c r="F4" s="13">
         <v>0.88341666666666663</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="13">
         <v>18965.13264388053</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <v>5286.503528206772</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="12">
         <v>152</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <v>49.98</v>
       </c>
-      <c r="K4" s="13">
+      <c r="L4" s="13">
         <v>0.89339677137224671</v>
       </c>
-      <c r="L4" s="13">
+      <c r="M4" s="13">
         <v>0.8813933908370476</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4065,26 +4261,29 @@
       <c r="F5" s="5">
         <v>0.94874999999999998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="5">
         <v>7267.9212384810844</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>2231.301617769102</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>224</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>80.89</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>0.95752005454985678</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>0.94818855155993131</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4103,26 +4302,29 @@
       <c r="F6" s="5">
         <v>0.95625000000000004</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="5">
         <v>3774.1475896859042</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>1866.2265098258661</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>471</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>146.94999999999999</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>0.97910097264778684</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>0.95578945825854389</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4141,26 +4343,29 @@
       <c r="F7" s="5">
         <v>0.94874999999999998</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="5">
         <v>4252.3218108486517</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>2211.1582948869</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>264</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>83.15</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>0.97554770325354168</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>0.948048580760117</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4179,26 +4384,29 @@
       <c r="F8" s="5">
         <v>0.94974999999999998</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="5">
         <v>5494.8851704134231</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>2045.446738930254</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>499</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>148.80000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>0.96765600609521008</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>0.94919918448688123</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4217,26 +4425,29 @@
       <c r="F9" s="5">
         <v>0.95316666666666672</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="5">
         <v>4290.7121337499029</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>2003.344451245169</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>413</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>124.21</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>0.9758679470278816</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>0.95275325380495612</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4255,26 +4466,29 @@
       <c r="F10" s="5">
         <v>0.95283333333333331</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="5">
         <v>3963.522518744111</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>2013.63441003803</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>292</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>92.09</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>0.9780466072786469</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>0.95243522181617135</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -4293,26 +4507,29 @@
       <c r="F11" s="5">
         <v>0.94574999999999998</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="5">
         <v>7164.0327376142077</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>2229.6538576128592</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>499</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>179.68</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>0.95692510252260465</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>0.94498042197555809</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4331,26 +4548,29 @@
       <c r="F12" s="5">
         <v>0.95174999999999998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="5">
         <v>5232.2215893492576</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>1980.088768683657</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>499</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>155.25</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>0.9689487331805674</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>0.95127569478774809</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -4369,58 +4589,64 @@
       <c r="F13" s="15">
         <v>0.95158333333333334</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="15">
         <v>4272.6237289107148</v>
       </c>
-      <c r="H13" s="15">
+      <c r="I13" s="15">
         <v>2045.1256742509011</v>
       </c>
-      <c r="I13" s="14">
+      <c r="J13" s="14">
         <v>386</v>
       </c>
-      <c r="J13" s="14">
+      <c r="K13" s="14">
         <v>114.95</v>
       </c>
-      <c r="K13" s="15">
+      <c r="L13" s="15">
         <v>0.97463533293599591</v>
       </c>
-      <c r="L13" s="15">
+      <c r="M13" s="15">
         <v>0.95102852839890351</v>
       </c>
-      <c r="N13" s="15">
+      <c r="O13" s="15">
         <f>AVERAGE(F2:F13)</f>
         <v>0.91980555555555554</v>
       </c>
-      <c r="O13" s="14">
+      <c r="P13" s="14">
         <f>_xlfn.STDEV.S(F2:F13)</f>
         <v>6.2115975081047881E-2</v>
       </c>
-      <c r="P13" s="15">
-        <f>AVERAGE(H2:H13)</f>
+      <c r="Q13" s="15">
+        <f>AVERAGE(I2:I13)</f>
         <v>3242.6672125655446</v>
       </c>
-      <c r="Q13" s="14">
-        <f>_xlfn.STDEV.S(H2:H13)</f>
+      <c r="R13" s="14">
+        <f>_xlfn.STDEV.S(I2:I13)</f>
         <v>2224.4499603051927</v>
       </c>
-      <c r="R13" s="14">
+      <c r="S13" s="14">
+        <f>AVERAGE(K2:K13)</f>
+        <v>100.89333333333333</v>
+      </c>
+      <c r="T13" s="14">
+        <f>_xlfn.STDEV.S(K2:K13)</f>
+        <v>53.700079115115813</v>
+      </c>
+      <c r="U13" s="14">
         <f>AVERAGE(J2:J13)</f>
-        <v>100.89333333333333</v>
-      </c>
-      <c r="S13" s="14">
+        <v>315.41666666666669</v>
+      </c>
+      <c r="V13" s="14">
         <f>_xlfn.STDEV.S(J2:J13)</f>
-        <v>53.700079115115813</v>
-      </c>
-      <c r="T13" s="14">
-        <f>AVERAGE(I2:I13)</f>
-        <v>315.41666666666669</v>
-      </c>
-      <c r="U13" s="14">
-        <f>_xlfn.STDEV.S(I2:I13)</f>
         <v>172.41781089884978</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -4439,26 +4665,29 @@
       <c r="F15" s="9">
         <v>0.30325000000000002</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="9">
         <v>87379.744838814353</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <v>21926.37220364152</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>67</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>45.3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="L15" s="9">
         <v>0.20992333826317111</v>
       </c>
-      <c r="L15" s="9">
+      <c r="M15" s="9">
         <v>0.20822335060363981</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -4477,26 +4706,29 @@
       <c r="F16" s="9">
         <v>0.40258333333333329</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="9">
         <v>65695.78084766047</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>16561.76251303796</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>41</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>32.83</v>
       </c>
-      <c r="K16" s="9">
+      <c r="L16" s="9">
         <v>0.3177441494127265</v>
       </c>
-      <c r="L16" s="9">
+      <c r="M16" s="9">
         <v>0.31107008611526837</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -4515,26 +4747,29 @@
       <c r="F17" s="9">
         <v>0.31566666666666671</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="9">
         <v>74952.250510342434</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>19138.85842773673</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>440</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>249.81</v>
       </c>
-      <c r="K17" s="9">
+      <c r="L17" s="9">
         <v>0.2179823445934809</v>
       </c>
-      <c r="L17" s="9">
+      <c r="M17" s="9">
         <v>0.215236274347618</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4553,26 +4788,29 @@
       <c r="F18" s="5">
         <v>0.94316666666666671</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="5">
         <v>7665.6489999706419</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>2321.1539008591371</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>241</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>141.21</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>0.95381466710342089</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>0.94244691340457099</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4591,26 +4829,29 @@
       <c r="F19" s="5">
         <v>0.91933333333333334</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="5">
         <v>12442.40111553363</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>3305.1932449394749</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>69</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>47.94</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>0.9250028576792666</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>0.91817893857798227</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4629,26 +4870,29 @@
       <c r="F20" s="5">
         <v>0.92958333333333332</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="5">
         <v>8974.8229871541316</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>3063.272468400367</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>204</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>119.28</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>0.94553409003274458</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>0.92871982402649755</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4667,26 +4911,29 @@
       <c r="F21" s="5">
         <v>0.95683333333333331</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="5">
         <v>4599.1414130241164</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>1747.5305511022229</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>499</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>272.42</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>0.97393290215404138</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <v>0.95636067667886682</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4705,26 +4952,29 @@
       <c r="F22" s="5">
         <v>0.94550000000000001</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="5">
         <v>6385.0896455517614</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>2241.294660815171</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>256</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>150.05000000000001</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>0.96172346226586591</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>0.94479813567242699</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4743,26 +4993,29 @@
       <c r="F23" s="5">
         <v>0.89824999999999999</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="5">
         <v>16309.50827052163</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>4512.5858650664823</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>114</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>70.930000000000007</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>0.90904395723409004</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>0.89705438578837815</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4781,26 +5034,29 @@
       <c r="F24" s="5">
         <v>0.95883333333333332</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="5">
         <v>5094.2845832291887</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>1669.4625778874531</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>499</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>274.8</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>0.97068614419693555</v>
       </c>
-      <c r="L24" s="5">
+      <c r="M24" s="5">
         <v>0.95839400522648632</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4819,26 +5075,29 @@
       <c r="F25" s="5">
         <v>0.96025000000000005</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="5">
         <v>3783.468069195143</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>1610.6280146499239</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>499</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>271.38</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>0.97911993852964496</v>
       </c>
-      <c r="L25" s="5">
+      <c r="M25" s="5">
         <v>0.95977082231069788</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -4857,58 +5116,64 @@
       <c r="F26" s="7">
         <v>0.9684166666666667</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="7">
         <v>1587.0030828034769</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="7">
         <v>1323.889587585199</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>438</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>245.5</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="7">
         <v>0.99354051026245993</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>0.9680857052491737</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <f>AVERAGE(F15:F26)</f>
         <v>0.79180555555555554</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P26" s="6">
         <f>_xlfn.STDEV.S(F15:F26)</f>
         <v>0.27381061971987231</v>
       </c>
-      <c r="P26" s="7">
-        <f>AVERAGE(H15:H26)</f>
+      <c r="Q26" s="7">
+        <f>AVERAGE(I15:I26)</f>
         <v>6618.5003346434687</v>
       </c>
-      <c r="Q26" s="6">
-        <f>_xlfn.STDEV.S(H15:H26)</f>
+      <c r="R26" s="6">
+        <f>_xlfn.STDEV.S(I15:I26)</f>
         <v>7728.1623174838487</v>
       </c>
-      <c r="R26" s="6">
+      <c r="S26" s="6">
+        <f>AVERAGE(K15:K26)</f>
+        <v>160.12083333333331</v>
+      </c>
+      <c r="T26" s="6">
+        <f>_xlfn.STDEV.S(K15:K26)</f>
+        <v>97.946230189493974</v>
+      </c>
+      <c r="U26" s="6">
         <f>AVERAGE(J15:J26)</f>
-        <v>160.12083333333331</v>
-      </c>
-      <c r="S26" s="6">
+        <v>280.58333333333331</v>
+      </c>
+      <c r="V26" s="6">
         <f>_xlfn.STDEV.S(J15:J26)</f>
-        <v>97.946230189493974</v>
-      </c>
-      <c r="T26" s="6">
-        <f>AVERAGE(I15:I26)</f>
-        <v>280.58333333333331</v>
-      </c>
-      <c r="U26" s="6">
-        <f>_xlfn.STDEV.S(I15:I26)</f>
         <v>185.1001980910159</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -4927,26 +5192,29 @@
       <c r="F28" s="9">
         <v>0.3785</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="9">
         <v>71658.691641023135</v>
       </c>
-      <c r="H28" s="9">
+      <c r="I28" s="9">
         <v>17981.25788733648</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>95</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>97.53</v>
       </c>
-      <c r="K28" s="9">
+      <c r="L28" s="9">
         <v>0.32372210012411862</v>
       </c>
-      <c r="L28" s="9">
+      <c r="M28" s="9">
         <v>0.31697828601632549</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>25</v>
       </c>
@@ -4965,26 +5233,29 @@
       <c r="F29" s="9">
         <v>0.51024999999999998</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="9">
         <v>55138.738846140899</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>14047.07030142059</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>71</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>78.03</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="9">
         <v>0.44329389331636371</v>
       </c>
-      <c r="L29" s="9">
+      <c r="M29" s="9">
         <v>0.44656165163175882</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -5003,26 +5274,29 @@
       <c r="F30" s="9">
         <v>0.1123333333333333</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="9">
         <v>110476.8010285441</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>27621.820327305421</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="8">
         <v>74</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>84.56</v>
       </c>
-      <c r="K30" s="9">
+      <c r="L30" s="9">
         <v>2.0204895772854121E-2</v>
       </c>
-      <c r="L30" s="9">
+      <c r="M30" s="9">
         <v>2.0197782439316751E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -5041,26 +5315,29 @@
       <c r="F31" s="5">
         <v>0.94258333333333333</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="5">
         <v>8346.7292482936009</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>2469.6771783555801</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>245</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>228.44</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <v>0.95068042796072094</v>
       </c>
-      <c r="L31" s="5">
+      <c r="M31" s="5">
         <v>0.9418307411928637</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -5079,26 +5356,29 @@
       <c r="F32" s="5">
         <v>0.90900000000000003</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="5">
         <v>15006.97010996264</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>3968.5506179332651</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>60</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>66.45</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>0.91373537487407186</v>
       </c>
-      <c r="L32" s="5">
+      <c r="M32" s="5">
         <v>0.90752143533399399</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -5117,26 +5397,29 @@
       <c r="F33" s="13">
         <v>0.88658333333333328</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="13">
         <v>18597.492987840342</v>
       </c>
-      <c r="H33" s="13">
+      <c r="I33" s="13">
         <v>5184.0496126658591</v>
       </c>
-      <c r="I33" s="12">
+      <c r="J33" s="12">
         <v>81</v>
       </c>
-      <c r="J33" s="12">
+      <c r="K33" s="12">
         <v>85.31</v>
       </c>
-      <c r="K33" s="13">
+      <c r="L33" s="13">
         <v>0.89299687170399644</v>
       </c>
-      <c r="L33" s="13">
+      <c r="M33" s="13">
         <v>0.88475488407413627</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -5155,26 +5438,29 @@
       <c r="F34" s="13">
         <v>0.88316666666666666</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="13">
         <v>19068.72586107297</v>
       </c>
-      <c r="H34" s="13">
+      <c r="I34" s="13">
         <v>4977.178320595227</v>
       </c>
-      <c r="I34" s="12">
+      <c r="J34" s="12">
         <v>94</v>
       </c>
-      <c r="J34" s="12">
+      <c r="K34" s="12">
         <v>96.94</v>
       </c>
-      <c r="K34" s="13">
+      <c r="L34" s="13">
         <v>0.88828395844821073</v>
       </c>
-      <c r="L34" s="13">
+      <c r="M34" s="13">
         <v>0.88128031028783094</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -5193,26 +5479,29 @@
       <c r="F35" s="5">
         <v>0.93074999999999997</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="5">
         <v>9759.6433529018705</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>2882.058132879919</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>136</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>136.28</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>0.94212148748868185</v>
       </c>
-      <c r="L35" s="5">
+      <c r="M35" s="5">
         <v>0.92982171873008013</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -5231,26 +5520,29 @@
       <c r="F36" s="13">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="13">
         <v>21512.060590523</v>
       </c>
-      <c r="H36" s="13">
+      <c r="I36" s="13">
         <v>5794.2731251195582</v>
       </c>
-      <c r="I36" s="12">
+      <c r="J36" s="12">
         <v>125</v>
       </c>
-      <c r="J36" s="12">
+      <c r="K36" s="12">
         <v>146.13999999999999</v>
       </c>
-      <c r="K36" s="13">
+      <c r="L36" s="13">
         <v>0.8626716407535453</v>
       </c>
-      <c r="L36" s="13">
+      <c r="M36" s="13">
         <v>0.85506713605267459</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -5269,26 +5561,29 @@
       <c r="F37" s="5">
         <v>0.96050000000000002</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="5">
         <v>5207.2098727203856</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>1664.255434578424</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>499</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>454.01</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <v>0.96974621717946652</v>
       </c>
-      <c r="L37" s="5">
+      <c r="M37" s="5">
         <v>0.96004511237294177</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -5307,26 +5602,29 @@
       <c r="F38" s="5">
         <v>0.95491666666666664</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="5">
         <v>5163.0176107295638</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>1934.126409812558</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>499</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>438.67</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>0.96961222602303754</v>
       </c>
-      <c r="L38" s="5">
+      <c r="M38" s="5">
         <v>0.95435036577389043</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -5345,58 +5643,64 @@
       <c r="F39" s="5">
         <v>0.94725000000000004</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="5">
         <v>4765.1408889682161</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>2217.6891201960698</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>481</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>439.47</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>0.97236558313847143</v>
       </c>
-      <c r="L39" s="5">
+      <c r="M39" s="5">
         <v>0.9465934345580177</v>
       </c>
-      <c r="N39" s="5">
+      <c r="O39" s="5">
         <f>AVERAGE(F28:F39)</f>
         <v>0.77281944444444439</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <f>_xlfn.STDEV.S(F28:F39)</f>
         <v>0.28028610210280969</v>
       </c>
-      <c r="P39" s="5">
-        <f>AVERAGE(H28:H39)</f>
+      <c r="Q39" s="5">
+        <f>AVERAGE(I28:I39)</f>
         <v>7561.8338723499119</v>
       </c>
-      <c r="Q39" s="4">
-        <f>_xlfn.STDEV.S(H28:H39)</f>
+      <c r="R39" s="4">
+        <f>_xlfn.STDEV.S(I28:I39)</f>
         <v>8114.1782162735108</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
+        <f>AVERAGE(K28:K39)</f>
+        <v>195.98583333333332</v>
+      </c>
+      <c r="T39" s="4">
+        <f>_xlfn.STDEV.S(K28:K39)</f>
+        <v>155.71561394579271</v>
+      </c>
+      <c r="U39" s="4">
         <f>AVERAGE(J28:J39)</f>
-        <v>195.98583333333332</v>
-      </c>
-      <c r="S39" s="4">
+        <v>205</v>
+      </c>
+      <c r="V39" s="4">
         <f>_xlfn.STDEV.S(J28:J39)</f>
-        <v>155.71561394579271</v>
-      </c>
-      <c r="T39" s="4">
-        <f>AVERAGE(I28:I39)</f>
-        <v>205</v>
-      </c>
-      <c r="U39" s="4">
-        <f>_xlfn.STDEV.S(I28:I39)</f>
         <v>180.34008277292503</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>36</v>
       </c>
@@ -5415,26 +5719,29 @@
       <c r="F41" s="9">
         <v>0.41883333333333328</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="9">
         <v>73265.596075027497</v>
       </c>
-      <c r="H41" s="9">
+      <c r="I41" s="9">
         <v>18360.104577848211</v>
       </c>
-      <c r="I41" s="8">
+      <c r="J41" s="8">
         <v>20</v>
       </c>
-      <c r="J41" s="8">
+      <c r="K41" s="8">
         <v>53.46</v>
       </c>
-      <c r="K41" s="9">
+      <c r="L41" s="9">
         <v>0.31261001364189211</v>
       </c>
-      <c r="L41" s="9">
+      <c r="M41" s="9">
         <v>0.31283726444167642</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>37</v>
       </c>
@@ -5453,26 +5760,29 @@
       <c r="F42" s="13">
         <v>0.70666666666666667</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="13">
         <v>37921.417402914129</v>
       </c>
-      <c r="H42" s="13">
+      <c r="I42" s="13">
         <v>9749.3634209542597</v>
       </c>
-      <c r="I42" s="12">
+      <c r="J42" s="12">
         <v>73</v>
       </c>
-      <c r="J42" s="12">
+      <c r="K42" s="12">
         <v>129.56</v>
       </c>
-      <c r="K42" s="13">
+      <c r="L42" s="13">
         <v>0.67360106940831987</v>
       </c>
-      <c r="L42" s="13">
+      <c r="M42" s="13">
         <v>0.66906901631585014</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>38</v>
       </c>
@@ -5491,26 +5801,29 @@
       <c r="F43" s="9">
         <v>9.7833333333333328E-2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="9">
         <v>173031.93036763099</v>
       </c>
-      <c r="H43" s="9">
+      <c r="I43" s="9">
         <v>43045.221804673609</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>9</v>
       </c>
-      <c r="J43" s="8">
+      <c r="K43" s="8">
         <v>37.61</v>
       </c>
-      <c r="K43" s="9">
+      <c r="L43" s="9">
         <v>1.814478584729981E-2</v>
       </c>
-      <c r="L43" s="9">
+      <c r="M43" s="9">
         <v>1.8198728879243529E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -5529,26 +5842,29 @@
       <c r="F44" s="5">
         <v>0.94808333333333328</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="5">
         <v>7573.2287247283939</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>2278.749691080362</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>222</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>343.73</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <v>0.9544368440107931</v>
       </c>
-      <c r="L44" s="5">
+      <c r="M44" s="5">
         <v>0.94752230310036256</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>40</v>
       </c>
@@ -5567,26 +5883,29 @@
       <c r="F45" s="9">
         <v>0.50124999999999997</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="9">
         <v>61289.015248823569</v>
       </c>
-      <c r="H45" s="9">
+      <c r="I45" s="9">
         <v>15423.566838056629</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>98</v>
       </c>
-      <c r="J45" s="8">
+      <c r="K45" s="8">
         <v>166.97</v>
       </c>
-      <c r="K45" s="9">
+      <c r="L45" s="9">
         <v>0.43313950849779259</v>
       </c>
-      <c r="L45" s="9">
+      <c r="M45" s="9">
         <v>0.4287300151282385</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>41</v>
       </c>
@@ -5605,26 +5924,29 @@
       <c r="F46" s="13">
         <v>0.8115</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="13">
         <v>27146.209553651679</v>
       </c>
-      <c r="H46" s="13">
+      <c r="I46" s="13">
         <v>7356.760909686689</v>
       </c>
-      <c r="I46" s="12">
+      <c r="J46" s="12">
         <v>98</v>
       </c>
-      <c r="J46" s="12">
+      <c r="K46" s="12">
         <v>167.34</v>
       </c>
-      <c r="K46" s="13">
+      <c r="L46" s="13">
         <v>0.8211404322239606</v>
       </c>
-      <c r="L46" s="13">
+      <c r="M46" s="13">
         <v>0.80478366026885073</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -5643,26 +5965,29 @@
       <c r="F47" s="5">
         <v>0.94299999999999995</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="5">
         <v>8235.4989328357187</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>2413.2245680364572</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>251</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>390.38</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>0.95044628494092342</v>
       </c>
-      <c r="L47" s="5">
+      <c r="M47" s="5">
         <v>0.9423918582379448</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43</v>
       </c>
@@ -5681,26 +6006,29 @@
       <c r="F48" s="13">
         <v>0.80391666666666661</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="13">
         <v>30365.111379116821</v>
       </c>
-      <c r="H48" s="13">
+      <c r="I48" s="13">
         <v>7774.8463988759031</v>
       </c>
-      <c r="I48" s="12">
+      <c r="J48" s="12">
         <v>94</v>
       </c>
-      <c r="J48" s="12">
+      <c r="K48" s="12">
         <v>160.86000000000001</v>
       </c>
-      <c r="K48" s="13">
+      <c r="L48" s="13">
         <v>0.80714836453333239</v>
       </c>
-      <c r="L48" s="13">
+      <c r="M48" s="13">
         <v>0.80137400927123648</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>44</v>
       </c>
@@ -5719,26 +6047,29 @@
       <c r="F49" s="9">
         <v>0.57266666666666666</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="9">
         <v>46479.345223151497</v>
       </c>
-      <c r="H49" s="9">
+      <c r="I49" s="9">
         <v>12017.17137329937</v>
       </c>
-      <c r="I49" s="8">
+      <c r="J49" s="8">
         <v>63</v>
       </c>
-      <c r="J49" s="8">
+      <c r="K49" s="8">
         <v>114.04</v>
       </c>
-      <c r="K49" s="9">
+      <c r="L49" s="9">
         <v>0.50280853745233212</v>
       </c>
-      <c r="L49" s="9">
+      <c r="M49" s="9">
         <v>0.49891113559636657</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -5757,26 +6088,29 @@
       <c r="F50" s="5">
         <v>0.95316666666666672</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="5">
         <v>6147.7382173881279</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>1938.9880954285841</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>499</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>728.96</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <v>0.96336351293298428</v>
       </c>
-      <c r="L50" s="5">
+      <c r="M50" s="5">
         <v>0.9526339412435384</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -5795,26 +6129,29 @@
       <c r="F51" s="5">
         <v>0.94858333333333333</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="5">
         <v>6032.8318326787057</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>2176.1141981966712</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>499</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>726.7</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>0.96489092957251388</v>
       </c>
-      <c r="L51" s="5">
+      <c r="M51" s="5">
         <v>0.94796164486282031</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -5833,58 +6170,64 @@
       <c r="F52" s="5">
         <v>0.90625</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="5">
         <v>16197.71466059681</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>4310.2271360158175</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>109</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>182.32</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <v>0.90790357600668903</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <v>0.90463766064593421</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f>AVERAGE(F41:F52)</f>
         <v>0.71764583333333343</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <f>_xlfn.STDEV.S(F41:F52)</f>
         <v>0.27067827758393925</v>
       </c>
-      <c r="P52" s="5">
-        <f>AVERAGE(H41:H52)</f>
+      <c r="Q52" s="5">
+        <f>AVERAGE(I41:I52)</f>
         <v>10570.361584346048</v>
       </c>
-      <c r="Q52" s="4">
-        <f>_xlfn.STDEV.S(H41:H52)</f>
+      <c r="R52" s="4">
+        <f>_xlfn.STDEV.S(I41:I52)</f>
         <v>11596.248089772082</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
+        <f>AVERAGE(K41:K52)</f>
+        <v>266.82750000000004</v>
+      </c>
+      <c r="T52" s="4">
+        <f>_xlfn.STDEV.S(K41:K52)</f>
+        <v>238.31244373434706</v>
+      </c>
+      <c r="U52" s="4">
         <f>AVERAGE(J41:J52)</f>
-        <v>266.82750000000004</v>
-      </c>
-      <c r="S52" s="4">
+        <v>169.58333333333334</v>
+      </c>
+      <c r="V52" s="4">
         <f>_xlfn.STDEV.S(J41:J52)</f>
-        <v>238.31244373434706</v>
-      </c>
-      <c r="T52" s="4">
-        <f>AVERAGE(I41:I52)</f>
-        <v>169.58333333333334</v>
-      </c>
-      <c r="U52" s="4">
-        <f>_xlfn.STDEV.S(I41:I52)</f>
         <v>169.19298198068131</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>48</v>
       </c>
@@ -5903,26 +6246,29 @@
       <c r="F54" s="11">
         <v>0.70425000000000004</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="11">
         <v>41986.859098858353</v>
       </c>
-      <c r="H54" s="11">
+      <c r="I54" s="11">
         <v>10646.64211604537</v>
       </c>
-      <c r="I54" s="10">
+      <c r="J54" s="10">
         <v>48</v>
       </c>
-      <c r="J54" s="10">
+      <c r="K54" s="10">
         <v>223.75</v>
       </c>
-      <c r="K54" s="11">
+      <c r="L54" s="11">
         <v>0.66621466270576513</v>
       </c>
-      <c r="L54" s="11">
+      <c r="M54" s="11">
         <v>0.66477515173022372</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>49</v>
       </c>
@@ -5941,26 +6287,29 @@
       <c r="F55" s="9">
         <v>0.55133333333333334</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="9">
         <v>57068.034538171443</v>
       </c>
-      <c r="H55" s="9">
+      <c r="I55" s="9">
         <v>14499.899330102069</v>
       </c>
-      <c r="I55" s="8">
+      <c r="J55" s="8">
         <v>46</v>
       </c>
-      <c r="J55" s="8">
+      <c r="K55" s="8">
         <v>217.19</v>
       </c>
-      <c r="K55" s="9">
+      <c r="L55" s="9">
         <v>0.51914128584495711</v>
       </c>
-      <c r="L55" s="9">
+      <c r="M55" s="9">
         <v>0.51247848333325874</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>50</v>
       </c>
@@ -5979,26 +6328,29 @@
       <c r="F56" s="9">
         <v>0.53241666666666665</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="9">
         <v>49867.384637276518</v>
       </c>
-      <c r="H56" s="9">
+      <c r="I56" s="9">
         <v>13281.13194015461</v>
       </c>
-      <c r="I56" s="8">
+      <c r="J56" s="8">
         <v>499</v>
       </c>
-      <c r="J56" s="8">
+      <c r="K56" s="8">
         <v>2396.92</v>
       </c>
-      <c r="K56" s="9">
+      <c r="L56" s="9">
         <v>0.46563282013949531</v>
       </c>
-      <c r="L56" s="9">
+      <c r="M56" s="9">
         <v>0.45774651919894199</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>51</v>
       </c>
@@ -6017,26 +6369,29 @@
       <c r="F57" s="5">
         <v>0.95041666666666669</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="5">
         <v>6692.538851418004</v>
       </c>
-      <c r="H57" s="5">
+      <c r="I57" s="5">
         <v>2102.78128515239</v>
       </c>
-      <c r="I57" s="4">
+      <c r="J57" s="4">
         <v>328</v>
       </c>
-      <c r="J57" s="4">
+      <c r="K57" s="4">
         <v>1170.05</v>
       </c>
-      <c r="K57" s="5">
+      <c r="L57" s="5">
         <v>0.96030578516139609</v>
       </c>
-      <c r="L57" s="5">
+      <c r="M57" s="5">
         <v>0.94975323200847828</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -6055,26 +6410,29 @@
       <c r="F58" s="5">
         <v>0.85583333333333333</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="5">
         <v>22778.489778317271</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>5913.2075216198846</v>
       </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4">
         <v>73</v>
       </c>
-      <c r="J58" s="4">
+      <c r="K58" s="4">
         <v>305.29000000000002</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>0.85906862070624257</v>
       </c>
-      <c r="L58" s="5">
+      <c r="M58" s="5">
         <v>0.85242167079422126</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>53</v>
       </c>
@@ -6093,26 +6451,29 @@
       <c r="F59" s="11">
         <v>0.66733333333333333</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59" s="11">
         <v>40937.136563478853</v>
       </c>
-      <c r="H59" s="11">
+      <c r="I59" s="11">
         <v>10507.349354295849</v>
       </c>
-      <c r="I59" s="10">
+      <c r="J59" s="10">
         <v>70</v>
       </c>
-      <c r="J59" s="10">
+      <c r="K59" s="10">
         <v>291.3</v>
       </c>
-      <c r="K59" s="11">
+      <c r="L59" s="11">
         <v>0.63687730679592813</v>
       </c>
-      <c r="L59" s="11">
+      <c r="M59" s="11">
         <v>0.62854307042897317</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -6131,26 +6492,29 @@
       <c r="F60" s="5">
         <v>0.93008333333333337</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="5">
         <v>10675.99112624505</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>2918.9980593002479</v>
       </c>
-      <c r="I60" s="4">
+      <c r="J60" s="4">
         <v>193</v>
       </c>
-      <c r="J60" s="4">
+      <c r="K60" s="4">
         <v>719.06</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>0.93564051800419246</v>
       </c>
-      <c r="L60" s="5">
+      <c r="M60" s="5">
         <v>0.92913642965490906</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>55</v>
       </c>
@@ -6169,26 +6533,29 @@
       <c r="F61" s="13">
         <v>0.88816666666666666</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="13">
         <v>19614.238618017051</v>
       </c>
-      <c r="H61" s="13">
+      <c r="I61" s="13">
         <v>5071.621975075489</v>
       </c>
-      <c r="I61" s="12">
+      <c r="J61" s="12">
         <v>91</v>
       </c>
-      <c r="J61" s="12">
+      <c r="K61" s="12">
         <v>363.38</v>
       </c>
-      <c r="K61" s="13">
+      <c r="L61" s="13">
         <v>0.88655486582154575</v>
       </c>
-      <c r="L61" s="13">
+      <c r="M61" s="13">
         <v>0.88601067087717067</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>56</v>
       </c>
@@ -6207,26 +6574,29 @@
       <c r="F62" s="13">
         <v>0.87666666666666671</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="13">
         <v>19153.663463762259</v>
       </c>
-      <c r="H62" s="13">
+      <c r="I62" s="13">
         <v>5264.1784043537164</v>
       </c>
-      <c r="I62" s="12">
+      <c r="J62" s="12">
         <v>150</v>
       </c>
-      <c r="J62" s="12">
+      <c r="K62" s="12">
         <v>568.4</v>
       </c>
-      <c r="K62" s="13">
+      <c r="L62" s="13">
         <v>0.88672117680408635</v>
       </c>
-      <c r="L62" s="13">
+      <c r="M62" s="13">
         <v>0.87488681286768455</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>57</v>
       </c>
@@ -6245,26 +6615,29 @@
       <c r="F63" s="5">
         <v>0.95208333333333328</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="5">
         <v>6057.7935877297496</v>
       </c>
-      <c r="H63" s="5">
+      <c r="I63" s="5">
         <v>1936.190691221075</v>
       </c>
-      <c r="I63" s="4">
+      <c r="J63" s="4">
         <v>499</v>
       </c>
-      <c r="J63" s="4">
+      <c r="K63" s="4">
         <v>1708.28</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
         <v>0.96359511241269014</v>
       </c>
-      <c r="L63" s="5">
+      <c r="M63" s="5">
         <v>0.95142631698721325</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>58</v>
       </c>
@@ -6283,26 +6656,29 @@
       <c r="F64" s="5">
         <v>0.92525000000000002</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" t="s">
+        <v>148</v>
+      </c>
+      <c r="H64" s="5">
         <v>11548.663387965389</v>
       </c>
-      <c r="H64" s="5">
+      <c r="I64" s="5">
         <v>3162.4318960897599</v>
       </c>
-      <c r="I64" s="4">
+      <c r="J64" s="4">
         <v>177</v>
       </c>
-      <c r="J64" s="4">
+      <c r="K64" s="4">
         <v>680.39</v>
       </c>
-      <c r="K64" s="5">
+      <c r="L64" s="5">
         <v>0.93136022770349403</v>
       </c>
-      <c r="L64" s="5">
+      <c r="M64" s="5">
         <v>0.92411577852605531</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>59</v>
       </c>
@@ -6321,56 +6697,65 @@
       <c r="F65" s="13">
         <v>0.8530833333333333</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" s="13">
         <v>22838.612724162031</v>
       </c>
-      <c r="H65" s="13">
+      <c r="I65" s="13">
         <v>6065.0620112040351</v>
       </c>
-      <c r="I65" s="12">
+      <c r="J65" s="12">
         <v>150</v>
       </c>
-      <c r="J65" s="12">
+      <c r="K65" s="12">
         <v>567.52</v>
       </c>
-      <c r="K65" s="13">
+      <c r="L65" s="13">
         <v>0.85549881775185865</v>
       </c>
-      <c r="L65" s="13">
+      <c r="M65" s="13">
         <v>0.84985709650669838</v>
       </c>
-      <c r="N65" s="13">
+      <c r="O65" s="13">
         <f>AVERAGE(F54:F65)</f>
         <v>0.80724305555555553</v>
       </c>
-      <c r="O65" s="12">
+      <c r="P65" s="12">
         <f>_xlfn.STDEV.S(F54:F65)</f>
         <v>0.15300772599796159</v>
       </c>
-      <c r="P65" s="13">
-        <f>AVERAGE(H54:H65)</f>
+      <c r="Q65" s="13">
+        <f>AVERAGE(I54:I65)</f>
         <v>6780.7912153845418</v>
       </c>
-      <c r="Q65" s="12">
-        <f>_xlfn.STDEV.S(H54:H65)</f>
+      <c r="R65" s="12">
+        <f>_xlfn.STDEV.S(I54:I65)</f>
         <v>4374.6931708886259</v>
       </c>
-      <c r="R65" s="12">
+      <c r="S65" s="12">
+        <f>AVERAGE(K54:K65)</f>
+        <v>767.62749999999994</v>
+      </c>
+      <c r="T65" s="12">
+        <f>_xlfn.STDEV.S(K54:K65)</f>
+        <v>673.78934564993222</v>
+      </c>
+      <c r="U65" s="12">
         <f>AVERAGE(J54:J65)</f>
-        <v>767.62749999999994</v>
-      </c>
-      <c r="S65" s="12">
+        <v>193.66666666666666</v>
+      </c>
+      <c r="V65" s="12">
         <f>_xlfn.STDEV.S(J54:J65)</f>
-        <v>673.78934564993222</v>
-      </c>
-      <c r="T65" s="12">
-        <f>AVERAGE(I54:I65)</f>
-        <v>193.66666666666666</v>
-      </c>
-      <c r="U65" s="12">
-        <f>_xlfn.STDEV.S(I54:I65)</f>
         <v>162.93129245361698</v>
       </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G66"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
